--- a/results/run_small_20260112_184903_eps=NA_eps_u=NA_tol=1e-04_max_iter=1e+01_damping=8e-01_price_sign=-1e+00.xlsx
+++ b/results/run_small_20260112_184903_eps=NA_eps_u=NA_tol=1e-04_max_iter=1e+01_damping=8e-01_price_sign=-1e+00.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander\Studium\EEG\Complementarity Modelling\Repos\EPEC_Testing_Framework\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE679FFC-B764-42DD-8A56-3DAEB36ECDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D082BE82-6FC4-4A6F-A0AF-AE58F95BFCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="2715" windowWidth="22395" windowHeight="16905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8130" yWindow="2715" windowWidth="22395" windowHeight="16905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="run_config" sheetId="1" r:id="rId1"/>
     <sheet name="final_theta" sheetId="2" r:id="rId2"/>
     <sheet name="history" sheetId="3" r:id="rId3"/>
-    <sheet name="test graph" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">history!$A$1:$AL$1</definedName>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="65">
   <si>
     <t>key</t>
   </si>
@@ -282,1321 +281,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'test graph'!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ulp_obj</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'test graph'!$B$4:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'test graph'!$C$4:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>-902.46931472851168</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2469.297600766331</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-573.97514799019359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1135.670112496839</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1287.238248261192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-573.97514945014109</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>204.6468490003773</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>387.07863233160032</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-573.97514865426911</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1595.5633509160771</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2285.1819929648109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-573.97514980052847</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1415.9154758315481</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-766.89208417903831</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-573.97514985695182</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49.183282036128467</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-766.89214622375778</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-573.97515776584714</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-301.80131113653459</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-766.8921031331555</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-573.9751578490766</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-372.00427438831241</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-766.89210153405918</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-573.97515784995164</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-386.04491037576969</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-766.89210153415263</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-573.97515785000053</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-388.85303791192598</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-766.89210153416627</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0222-4734-88D5-7A5D157C9C22}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'test graph'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>llp_obj</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'test graph'!$B$4:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'test graph'!$D$4:$D$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>3196.175512356082</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3328.3639093569859</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3964.5296110786808</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4763.0627170238313</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4428.9848702274112</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3672.7237906303571</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3919.605547689519</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3902.2760745711971</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8195.5797966496084</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7321.8503959177624</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7319.8733529709179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3714.1743913860969</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4443.7100421881469</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4444.382990806942</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2733.9311605300991</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3076.3819357770658</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3076.4013951825</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2637.6528460449322</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2725.4203266569548</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2725.4214238101858</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2637.6710105741131</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2655.2246033030419</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2655.224800375865</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2637.6747171292632</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2641.1854364398559</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2641.1854756755579</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2637.6754590294868</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2638.3776028977122</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2638.377610743421</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0222-4734-88D5-7A5D157C9C22}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1272538879"/>
-        <c:axId val="1272547999"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1272538879"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1272547999"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1272547999"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1272538879"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543E6A53-C21B-E253-ED49-6ACDB9635356}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1986,9 +670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,9 +833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5418,358 +4102,4 @@
   <autoFilter ref="A1:AL1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D56E2BA-0F92-43CE-AE2E-B29AC1F6D72A}">
-  <dimension ref="B3:D33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>-902.46931472851168</v>
-      </c>
-      <c r="D4">
-        <v>3196.175512356082</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2469.297600766331</v>
-      </c>
-      <c r="D5">
-        <v>3328.3639093569859</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>-573.97514799019359</v>
-      </c>
-      <c r="D6">
-        <v>3964.5296110786808</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>1135.670112496839</v>
-      </c>
-      <c r="D7">
-        <v>4763.0627170238313</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1287.238248261192</v>
-      </c>
-      <c r="D8">
-        <v>4428.9848702274112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>-573.97514945014109</v>
-      </c>
-      <c r="D9">
-        <v>3672.7237906303571</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>204.6468490003773</v>
-      </c>
-      <c r="D10">
-        <v>3919.605547689519</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>387.07863233160032</v>
-      </c>
-      <c r="D11">
-        <v>3902.2760745711971</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>-573.97514865426911</v>
-      </c>
-      <c r="D12">
-        <v>8195.5797966496084</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>1595.5633509160771</v>
-      </c>
-      <c r="D13">
-        <v>7321.8503959177624</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>2285.1819929648109</v>
-      </c>
-      <c r="D14">
-        <v>7319.8733529709179</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>-573.97514980052847</v>
-      </c>
-      <c r="D15">
-        <v>3714.1743913860969</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>1415.9154758315481</v>
-      </c>
-      <c r="D16">
-        <v>4443.7100421881469</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>-766.89208417903831</v>
-      </c>
-      <c r="D17">
-        <v>4444.382990806942</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>-573.97514985695182</v>
-      </c>
-      <c r="D18">
-        <v>2733.9311605300991</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>49.183282036128467</v>
-      </c>
-      <c r="D19">
-        <v>3076.3819357770658</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>-766.89214622375778</v>
-      </c>
-      <c r="D20">
-        <v>3076.4013951825</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>-573.97515776584714</v>
-      </c>
-      <c r="D21">
-        <v>2637.6528460449322</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>-301.80131113653459</v>
-      </c>
-      <c r="D22">
-        <v>2725.4203266569548</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>-766.8921031331555</v>
-      </c>
-      <c r="D23">
-        <v>2725.4214238101858</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>21</v>
-      </c>
-      <c r="C24">
-        <v>-573.9751578490766</v>
-      </c>
-      <c r="D24">
-        <v>2637.6710105741131</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>-372.00427438831241</v>
-      </c>
-      <c r="D25">
-        <v>2655.2246033030419</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>23</v>
-      </c>
-      <c r="C26">
-        <v>-766.89210153405918</v>
-      </c>
-      <c r="D26">
-        <v>2655.224800375865</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>24</v>
-      </c>
-      <c r="C27">
-        <v>-573.97515784995164</v>
-      </c>
-      <c r="D27">
-        <v>2637.6747171292632</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>-386.04491037576969</v>
-      </c>
-      <c r="D28">
-        <v>2641.1854364398559</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>-766.89210153415263</v>
-      </c>
-      <c r="D29">
-        <v>2641.1854756755579</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>-573.97515785000053</v>
-      </c>
-      <c r="D30">
-        <v>2637.6754590294868</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>28</v>
-      </c>
-      <c r="C31">
-        <v>-388.85303791192598</v>
-      </c>
-      <c r="D31">
-        <v>2638.3776028977122</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>29</v>
-      </c>
-      <c r="C32">
-        <v>-766.89210153416627</v>
-      </c>
-      <c r="D32">
-        <v>2638.377610743421</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>30</v>
-      </c>
-      <c r="C33">
-        <v>-573.97515785000917</v>
-      </c>
-      <c r="D33">
-        <v>2637.6756074142459</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>